--- a/xls/任务表.xlsx
+++ b/xls/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28800" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>任务ID</t>
   </si>
@@ -67,7 +67,7 @@
     <t>奖励3过期时间</t>
   </si>
   <si>
-    <t>id*</t>
+    <t>*id</t>
   </si>
   <si>
     <t>type</t>
@@ -82,40 +82,46 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>conds_1</t>
-  </si>
-  <si>
-    <t>conds_2</t>
-  </si>
-  <si>
-    <t>conds_3</t>
-  </si>
-  <si>
-    <t>awards_1_id</t>
-  </si>
-  <si>
-    <t>awards_1_num</t>
-  </si>
-  <si>
-    <t>awards_1_expire</t>
-  </si>
-  <si>
-    <t>awards_2_id</t>
-  </si>
-  <si>
-    <t>awards_2_num</t>
-  </si>
-  <si>
-    <t>awards_2_expire</t>
-  </si>
-  <si>
-    <t>awards_3_id</t>
-  </si>
-  <si>
-    <t>awards_3_num</t>
-  </si>
-  <si>
-    <t>awards_3_expire</t>
+    <t>conds#1</t>
+  </si>
+  <si>
+    <t>conds#2</t>
+  </si>
+  <si>
+    <t>conds#3</t>
+  </si>
+  <si>
+    <t>awards#1#id</t>
+  </si>
+  <si>
+    <t>awards#1#num</t>
+  </si>
+  <si>
+    <t>awards#1#expire</t>
+  </si>
+  <si>
+    <t>awards#2#id</t>
+  </si>
+  <si>
+    <t>awards#2#num</t>
+  </si>
+  <si>
+    <t>awards#2#expire</t>
+  </si>
+  <si>
+    <t>awards#3#id</t>
+  </si>
+  <si>
+    <t>awards#3#num</t>
+  </si>
+  <si>
+    <t>awards#3#expire</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>杀死10个野怪</t>
@@ -129,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -160,9 +166,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +279,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -192,112 +304,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +318,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +408,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,157 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,41 +512,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +532,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,26 +571,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,148 +614,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,54 +778,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1086,15 +1092,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
@@ -1220,77 +1226,77 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="3">
+    <row r="3" s="2" customFormat="1" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3">
         <v>1000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
         <v>43831</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="4">
         <v>44197</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>10</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>100</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M3" s="3">
-        <v>100</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:17">
-      <c r="A4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43800</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43831</v>
-      </c>
-      <c r="F4" s="3">
-        <v>50</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1323,6 +1329,59 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:17">
+      <c r="A5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43800</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43831</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
     </row>

--- a/xls/任务表.xlsx
+++ b/xls/任务表.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\xlsTools\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9CA5E-1EF3-4077-934E-DC7520FCB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11280"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TaskList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>任务ID</t>
   </si>
@@ -133,14 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,345 +165,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -511,251 +187,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -776,61 +210,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1088,19 +478,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
@@ -1120,7 +510,7 @@
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:17">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1000</v>
       </c>
@@ -1332,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1001</v>
       </c>
@@ -1386,7 +776,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/xls/任务表.xlsx
+++ b/xls/任务表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\xlsTools\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9CA5E-1EF3-4077-934E-DC7520FCB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD8187-9111-429E-BCB1-84E9D3F9E660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>任务ID</t>
   </si>
@@ -97,50 +97,56 @@
     <t>conds#3</t>
   </si>
   <si>
+    <t>awards#1#expire</t>
+  </si>
+  <si>
+    <t>awards#2#id</t>
+  </si>
+  <si>
+    <t>awards#2#num</t>
+  </si>
+  <si>
+    <t>awards#2#expire</t>
+  </si>
+  <si>
+    <t>awards#3#id</t>
+  </si>
+  <si>
+    <t>awards#3#num</t>
+  </si>
+  <si>
+    <t>awards#3#expire</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>杀死10个野怪</t>
+  </si>
+  <si>
+    <t>累计存活50分钟</t>
+  </si>
+  <si>
     <t>awards#1#id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>awards#1#num</t>
-  </si>
-  <si>
-    <t>awards#1#expire</t>
-  </si>
-  <si>
-    <t>awards#2#id</t>
-  </si>
-  <si>
-    <t>awards#2#num</t>
-  </si>
-  <si>
-    <t>awards#2#expire</t>
-  </si>
-  <si>
-    <t>awards#3#id</t>
-  </si>
-  <si>
-    <t>awards#3#num</t>
-  </si>
-  <si>
-    <t>awards#3#expire</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>杀死10个野怪</t>
-  </si>
-  <si>
-    <t>累计存活50分钟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +176,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,158 +606,158 @@
       <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43831</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44197</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>100</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="E5" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="F5" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -772,6 +790,59 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43800</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43831</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
     </row>

--- a/xls/任务表.xlsx
+++ b/xls/任务表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\xlsTools\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD8187-9111-429E-BCB1-84E9D3F9E660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA529720-D8AB-4475-9ABC-47D67699E093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xls/任务表.xlsx
+++ b/xls/任务表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\xlsTools\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA529720-D8AB-4475-9ABC-47D67699E093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="TaskList" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>任务ID</t>
   </si>
@@ -97,6 +91,12 @@
     <t>conds#3</t>
   </si>
   <si>
+    <t>awards#1#id</t>
+  </si>
+  <si>
+    <t>awards#1#num</t>
+  </si>
+  <si>
     <t>awards#1#expire</t>
   </si>
   <si>
@@ -124,29 +124,32 @@
     <t>string</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
     <t>杀死10个野怪</t>
   </si>
   <si>
     <t>累计存活50分钟</t>
-  </si>
-  <si>
-    <t>awards#1#id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>awards#1#num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,30 +174,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,43 +526,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,19 +1109,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
@@ -528,7 +1141,7 @@
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,273 +1194,292 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:17">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:17">
+      <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43831</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>38</v>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43800</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43831</v>
+      </c>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1001</v>
+      </c>
+      <c r="M6" s="5">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43831</v>
-      </c>
-      <c r="E5" s="4">
-        <v>44197</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>100</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43800</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43831</v>
-      </c>
-      <c r="F6" s="3">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>100</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>